--- a/DesafioSelenium/DataDriven/TestData2.xlsx
+++ b/DesafioSelenium/DataDriven/TestData2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A576DBB8-9D80-416D-A8ED-B6571C495DD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1890" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1890" windowWidth="14400" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>administrator</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>luana.assis</t>
   </si>
@@ -40,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,11 +344,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,13 +361,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1">
+        <v>123456</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -382,17 +375,9 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
         <v>123456</v>
       </c>
     </row>
